--- a/biology/Botanique/Liste_des_espèces_de_Senecio/Liste_des_espèces_de_Senecio.xlsx
+++ b/biology/Botanique/Liste_des_espèces_de_Senecio/Liste_des_espèces_de_Senecio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Senecio est un très grand genre de plantes à fleurs de la famille des Asteraceae. Les espèces suivantes sont acceptées par The Plant List[1],[2] :
-D'après Catalogue of Life (mai 2018) il existe 1 468 espèces dans le genre[3]
+Senecio est un très grand genre de plantes à fleurs de la famille des Asteraceae. Les espèces suivantes sont acceptées par The Plant List, :
+D'après Catalogue of Life (mai 2018) il existe 1 468 espèces dans le genre
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste des espèces acceptées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (3 janvier 2019)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (3 janvier 2019) :
 Sommaire :
 Haut – A
 B
@@ -553,7 +567,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -571,7 +585,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio abadianus DC.
@@ -715,7 +731,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -733,7 +749,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio baccharidifolius DC.
@@ -827,7 +845,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -845,7 +863,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio cacaliaster Lam.
@@ -1016,7 +1036,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1034,7 +1054,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio dahuricus Sch.Bip.
@@ -1111,7 +1133,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1129,7 +1151,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio echaetus Y.L.Chen &amp; K.Y.Pan
@@ -1185,7 +1209,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1203,7 +1227,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio faberi Hemsl. ex Hemsl.
@@ -1248,7 +1274,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1266,7 +1292,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio gallicus Vill.
@@ -1346,7 +1374,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1364,7 +1392,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio hadiensis Forssk.
@@ -1450,7 +1480,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1468,7 +1498,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio icaensis H.Beltrán &amp; A.Galán
@@ -1512,7 +1544,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1530,7 +1562,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio jacalensis Greenm.
@@ -1566,7 +1600,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1584,7 +1618,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio kacondensis S.Moore
@@ -1632,7 +1668,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1650,7 +1686,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio laceratus (F.Muell.) Belcher
@@ -1772,7 +1810,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1790,7 +1828,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio mabberleyi C.Jeffrey
@@ -1914,7 +1954,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1932,7 +1972,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio nagensium C.B.Clarke
@@ -1978,7 +2020,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1996,7 +2038,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio oaxacanus Hemsl.
@@ -2048,7 +2092,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2066,7 +2110,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio paarlensis DC.
@@ -2253,7 +2299,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2271,7 +2317,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio qathlambanus Hilliard
@@ -2293,7 +2341,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2311,7 +2359,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio racemosus (M.Bieb.) DC.
@@ -2402,7 +2452,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2420,7 +2470,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio sabinjoensis Muschl.
@@ -2581,7 +2633,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2599,7 +2651,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio tabulicola Baker
@@ -2688,7 +2742,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2706,7 +2760,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio ulopterus Thell.
@@ -2730,7 +2786,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2748,7 +2804,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio vaginatus Hook. &amp; Arn.
@@ -2796,7 +2854,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2814,7 +2872,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio wairauensis Belcher
@@ -2842,7 +2902,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2860,7 +2920,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio xenostylus O.Hoffm.
@@ -2875,7 +2937,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2893,7 +2955,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio yalae Cabrera
@@ -2911,7 +2975,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_de_Senecio</t>
+          <t>Liste_des_espèces_de_Senecio</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2929,7 +2993,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Senecio zapahuirensis Martic. &amp; Quezada
